--- a/runs/run517/NotionalETEOutput517.xlsx
+++ b/runs/run517/NotionalETEOutput517.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT2_State_Update</t>
+    <t>Missile_BRAVER0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT2_306.MISSILE_SOMERSAULT2_306</t>
+    <t>MISSILE_BRAVER0_497.MISSILE_BRAVER0_497</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT2</t>
+    <t>MISSILE_BRAVER0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1574.992413746954</v>
+        <v>-1536.483200423961</v>
       </c>
       <c r="J2">
-        <v>1970.48052082816</v>
+        <v>2082.450964081935</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1459.372189365677</v>
+        <v>-1436.326681368082</v>
       </c>
       <c r="J3">
-        <v>1904.590373892277</v>
+        <v>1890.816272919257</v>
       </c>
       <c r="K3">
-        <v>295.1012713648734</v>
+        <v>303.2855284767867</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1455.001408559887</v>
+        <v>-1504.937626762951</v>
       </c>
       <c r="J4">
-        <v>1833.196997787985</v>
+        <v>1920.463428676456</v>
       </c>
       <c r="K4">
-        <v>603.1490822549422</v>
+        <v>604.5008002980563</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1411.538566455297</v>
+        <v>-1397.734835205881</v>
       </c>
       <c r="J5">
-        <v>1929.144527558919</v>
+        <v>1943.657497703716</v>
       </c>
       <c r="K5">
-        <v>877.6943456415922</v>
+        <v>853.9131576611561</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1379.608076166377</v>
+        <v>-1438.480314794653</v>
       </c>
       <c r="J6">
-        <v>1719.025231388994</v>
+        <v>1727.652288581585</v>
       </c>
       <c r="K6">
-        <v>1141.237961788</v>
+        <v>1120.645513611869</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1307.924029337668</v>
+        <v>-1341.872922276427</v>
       </c>
       <c r="J7">
-        <v>1834.262196840429</v>
+        <v>1731.080193252751</v>
       </c>
       <c r="K7">
-        <v>1346.167777142331</v>
+        <v>1319.943735058765</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1320.788021690329</v>
+        <v>-1262.208669325025</v>
       </c>
       <c r="J8">
-        <v>1743.921306714278</v>
+        <v>1702.600538392918</v>
       </c>
       <c r="K8">
-        <v>1622.742845911386</v>
+        <v>1582.289081786286</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-101.7725953278312</v>
+        <v>-102.5988699411068</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1291.231582722444</v>
+        <v>-1251.110966270613</v>
       </c>
       <c r="J9">
-        <v>1612.144422654791</v>
+        <v>1593.931796471712</v>
       </c>
       <c r="K9">
-        <v>1873.322256509369</v>
+        <v>1790.917629300762</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>218.6014465715383</v>
+        <v>208.7202141410193</v>
       </c>
       <c r="G10">
-        <v>-83.23504239366389</v>
+        <v>-84.61449312445997</v>
       </c>
       <c r="H10">
-        <v>896.0428171071269</v>
+        <v>856.8427832391944</v>
       </c>
       <c r="I10">
-        <v>-1296.969574710901</v>
+        <v>-1229.930869537658</v>
       </c>
       <c r="J10">
-        <v>1603.412810999747</v>
+        <v>1567.058081168433</v>
       </c>
       <c r="K10">
-        <v>2008.233135202437</v>
+        <v>2020.898523653523</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.1211904298551</v>
+        <v>176.513186995276</v>
       </c>
       <c r="G11">
-        <v>-64.09565433783278</v>
+        <v>-70.02620270389973</v>
       </c>
       <c r="H11">
-        <v>1021.447586606487</v>
+        <v>1085.190900895272</v>
       </c>
       <c r="I11">
-        <v>-1242.58351396395</v>
+        <v>-1194.174194701052</v>
       </c>
       <c r="J11">
-        <v>1619.633255346065</v>
+        <v>1501.472097183489</v>
       </c>
       <c r="K11">
-        <v>2227.784226507469</v>
+        <v>2284.271018535287</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>144.5194273281552</v>
+        <v>146.6308752092586</v>
       </c>
       <c r="G12">
-        <v>-52.48797139671256</v>
+        <v>-48.41775686030559</v>
       </c>
       <c r="H12">
-        <v>1200.050254340024</v>
+        <v>1215.361528482806</v>
       </c>
       <c r="I12">
-        <v>-1197.41852541431</v>
+        <v>-1194.519987832001</v>
       </c>
       <c r="J12">
-        <v>1559.020363786521</v>
+        <v>1570.445353467082</v>
       </c>
       <c r="K12">
-        <v>2410.959790075767</v>
+        <v>2262.628462241475</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>121.0789025090474</v>
+        <v>126.3686682285142</v>
       </c>
       <c r="G13">
-        <v>-34.60442696086504</v>
+        <v>-33.59384441847175</v>
       </c>
       <c r="H13">
-        <v>1218.858794572244</v>
+        <v>1216.006334435488</v>
       </c>
       <c r="I13">
-        <v>-1099.400620824205</v>
+        <v>-1185.767598223352</v>
       </c>
       <c r="J13">
-        <v>1446.410241157166</v>
+        <v>1506.851049979542</v>
       </c>
       <c r="K13">
-        <v>2632.090961343986</v>
+        <v>2591.271747817909</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>112.0223149362867</v>
+        <v>105.7020964746118</v>
       </c>
       <c r="G14">
-        <v>-17.53302612026706</v>
+        <v>-16.86291961478242</v>
       </c>
       <c r="H14">
-        <v>1330.897005307724</v>
+        <v>1305.214182009792</v>
       </c>
       <c r="I14">
-        <v>-1052.929301550055</v>
+        <v>-1047.409986694645</v>
       </c>
       <c r="J14">
-        <v>1382.234593304491</v>
+        <v>1439.73848164301</v>
       </c>
       <c r="K14">
-        <v>2579.812045712962</v>
+        <v>2523.142498967512</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>97.27195851193626</v>
+        <v>95.67638349564415</v>
       </c>
       <c r="G15">
-        <v>-0.8813077163931416</v>
+        <v>-0.8813052881035225</v>
       </c>
       <c r="H15">
-        <v>1416.767759604296</v>
+        <v>1402.066062171731</v>
       </c>
       <c r="I15">
-        <v>-1091.164014157339</v>
+        <v>-1028.44780005582</v>
       </c>
       <c r="J15">
-        <v>1427.574322600843</v>
+        <v>1404.909134131588</v>
       </c>
       <c r="K15">
-        <v>2821.237151868172</v>
+        <v>2902.232884313635</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>92.08602174456759</v>
+        <v>94.44166359011824</v>
       </c>
       <c r="G16">
-        <v>16.04249960176815</v>
+        <v>15.34566287345693</v>
       </c>
       <c r="H16">
-        <v>1379.100645563872</v>
+        <v>1453.378397875707</v>
       </c>
       <c r="I16">
-        <v>-1035.155475589467</v>
+        <v>-1019.352055186944</v>
       </c>
       <c r="J16">
-        <v>1376.804669347085</v>
+        <v>1304.930798840378</v>
       </c>
       <c r="K16">
-        <v>2864.038746182346</v>
+        <v>2866.676470632601</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.74790542950709</v>
+        <v>83.11161040457083</v>
       </c>
       <c r="G17">
-        <v>30.69641008311321</v>
+        <v>32.91342242545933</v>
       </c>
       <c r="H17">
-        <v>1523.88452493941</v>
+        <v>1489.620977599746</v>
       </c>
       <c r="I17">
-        <v>-968.2163577402658</v>
+        <v>-950.8446392960069</v>
       </c>
       <c r="J17">
-        <v>1234.078625884168</v>
+        <v>1217.419253279632</v>
       </c>
       <c r="K17">
-        <v>3055.508484475826</v>
+        <v>2861.374739775232</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.68543399701689</v>
+        <v>81.75896196611751</v>
       </c>
       <c r="G18">
-        <v>49.51850668946511</v>
+        <v>46.20992316604171</v>
       </c>
       <c r="H18">
-        <v>1456.001894943225</v>
+        <v>1544.092347722637</v>
       </c>
       <c r="I18">
-        <v>-918.6869686977815</v>
+        <v>-892.1355599727161</v>
       </c>
       <c r="J18">
-        <v>1231.345570604598</v>
+        <v>1227.836690294638</v>
       </c>
       <c r="K18">
-        <v>3164.936566311639</v>
+        <v>2942.690344482196</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.441941517936</v>
+        <v>80.05051934946346</v>
       </c>
       <c r="G19">
-        <v>66.95963695532406</v>
+        <v>63.28997552456393</v>
       </c>
       <c r="H19">
-        <v>1568.954199134711</v>
+        <v>1473.197335964668</v>
       </c>
       <c r="I19">
-        <v>-905.9545535331264</v>
+        <v>-854.0251569878002</v>
       </c>
       <c r="J19">
-        <v>1149.383459317175</v>
+        <v>1211.842825039318</v>
       </c>
       <c r="K19">
-        <v>3252.672673138889</v>
+        <v>3183.875564900159</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>75.0893626976617</v>
+        <v>73.06471973083113</v>
       </c>
       <c r="G20">
-        <v>77.69885165155407</v>
+        <v>80.39899067426877</v>
       </c>
       <c r="H20">
-        <v>1494.905970573469</v>
+        <v>1502.671560337962</v>
       </c>
       <c r="I20">
-        <v>-846.4586070891709</v>
+        <v>-820.8313170021844</v>
       </c>
       <c r="J20">
-        <v>1147.246093621098</v>
+        <v>1082.902752884352</v>
       </c>
       <c r="K20">
-        <v>3304.181802496096</v>
+        <v>3126.278101693706</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.07542902937404</v>
+        <v>72.49126834320533</v>
       </c>
       <c r="G21">
-        <v>102.1488089390324</v>
+        <v>96.52969058282147</v>
       </c>
       <c r="H21">
-        <v>1652.403488380777</v>
+        <v>1604.224452876458</v>
       </c>
       <c r="I21">
-        <v>-822.6009620539506</v>
+        <v>-814.7967822188428</v>
       </c>
       <c r="J21">
-        <v>1077.358050292403</v>
+        <v>1093.044666881792</v>
       </c>
       <c r="K21">
-        <v>3229.79716901656</v>
+        <v>3203.30945670545</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.86359621969524</v>
+        <v>70.74335953962432</v>
       </c>
       <c r="G22">
-        <v>114.1602104994782</v>
+        <v>110.8809541203313</v>
       </c>
       <c r="H22">
-        <v>1638.299885641333</v>
+        <v>1553.078954622284</v>
       </c>
       <c r="I22">
-        <v>-738.673281254636</v>
+        <v>-732.6052989442536</v>
       </c>
       <c r="J22">
-        <v>1040.3203791047</v>
+        <v>995.1442124521193</v>
       </c>
       <c r="K22">
-        <v>3257.974973383223</v>
+        <v>3054.087231840722</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.05117306710301</v>
+        <v>67.62980506999735</v>
       </c>
       <c r="G23">
-        <v>127.0026246159182</v>
+        <v>126.2096916899873</v>
       </c>
       <c r="H23">
-        <v>1608.359321723921</v>
+        <v>1675.076765640473</v>
       </c>
       <c r="I23">
-        <v>-704.3201125668267</v>
+        <v>-708.4988652587236</v>
       </c>
       <c r="J23">
-        <v>1021.819193224236</v>
+        <v>1016.978412566515</v>
       </c>
       <c r="K23">
-        <v>3051.257245264024</v>
+        <v>3127.40896688074</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>65.39153174559263</v>
+        <v>65.12971036508689</v>
       </c>
       <c r="G24">
-        <v>148.9329471486312</v>
+        <v>150.9061558726925</v>
       </c>
       <c r="H24">
-        <v>1667.177809551664</v>
+        <v>1625.473348679991</v>
       </c>
       <c r="I24">
-        <v>-646.6544147839729</v>
+        <v>-663.3573119770456</v>
       </c>
       <c r="J24">
-        <v>918.4730948457991</v>
+        <v>944.8481040951768</v>
       </c>
       <c r="K24">
-        <v>3308.391322073257</v>
+        <v>3119.825424191723</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.64407907329176</v>
+        <v>59.87721865306641</v>
       </c>
       <c r="G25">
-        <v>163.9671639960049</v>
+        <v>161.0183619489972</v>
       </c>
       <c r="H25">
-        <v>1713.29235644234</v>
+        <v>1669.64606953181</v>
       </c>
       <c r="I25">
-        <v>-595.4346042884332</v>
+        <v>-596.2862559552227</v>
       </c>
       <c r="J25">
-        <v>851.1266915321498</v>
+        <v>881.3343775430035</v>
       </c>
       <c r="K25">
-        <v>3258.376572477452</v>
+        <v>3185.584831787271</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.37961779261941</v>
+        <v>59.74406418389236</v>
       </c>
       <c r="G26">
-        <v>188.7779782059713</v>
+        <v>184.2728355333851</v>
       </c>
       <c r="H26">
-        <v>1741.397099275483</v>
+        <v>1772.023862461456</v>
       </c>
       <c r="I26">
-        <v>-551.8300460932853</v>
+        <v>-535.8928500503006</v>
       </c>
       <c r="J26">
-        <v>839.7052967193736</v>
+        <v>821.9718913407884</v>
       </c>
       <c r="K26">
-        <v>3216.144956215701</v>
+        <v>3073.23581731089</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.09033632538797</v>
+        <v>60.72790210467895</v>
       </c>
       <c r="G27">
-        <v>196.5396800066726</v>
+        <v>203.0298031146676</v>
       </c>
       <c r="H27">
-        <v>1746.538361435383</v>
+        <v>1692.209034473537</v>
       </c>
       <c r="I27">
-        <v>-511.068843659993</v>
+        <v>-513.0300552688723</v>
       </c>
       <c r="J27">
-        <v>770.1162637095142</v>
+        <v>752.2168298058778</v>
       </c>
       <c r="K27">
-        <v>3036.495527461967</v>
+        <v>3176.492817586119</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.698422060179</v>
+        <v>56.28505064039513</v>
       </c>
       <c r="G28">
-        <v>211.2107113612971</v>
+        <v>205.4591866191681</v>
       </c>
       <c r="H28">
-        <v>1662.906940205387</v>
+        <v>1771.36001722632</v>
       </c>
       <c r="I28">
-        <v>-459.943150783208</v>
+        <v>-439.7789143671089</v>
       </c>
       <c r="J28">
-        <v>747.6194005119841</v>
+        <v>721.8856791328312</v>
       </c>
       <c r="K28">
-        <v>3123.106257769547</v>
+        <v>3104.078143065753</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.34652939599943</v>
+        <v>56.94351399870246</v>
       </c>
       <c r="G29">
-        <v>239.1330434110205</v>
+        <v>222.2406937957444</v>
       </c>
       <c r="H29">
-        <v>1744.238073425396</v>
+        <v>1800.414552240085</v>
       </c>
       <c r="I29">
-        <v>-388.6081413711472</v>
+        <v>-393.2186552929913</v>
       </c>
       <c r="J29">
-        <v>689.4766241247904</v>
+        <v>708.057012283969</v>
       </c>
       <c r="K29">
-        <v>2889.006270849531</v>
+        <v>2776.312938025214</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.50640278377077</v>
+        <v>56.34163276000828</v>
       </c>
       <c r="G30">
-        <v>250.5719026082213</v>
+        <v>246.9203784229811</v>
       </c>
       <c r="H30">
-        <v>1791.404115900938</v>
+        <v>1764.330897193678</v>
       </c>
       <c r="I30">
-        <v>-326.7357422779858</v>
+        <v>-318.6863618596693</v>
       </c>
       <c r="J30">
-        <v>617.2739652549136</v>
+        <v>630.9447714779488</v>
       </c>
       <c r="K30">
-        <v>2869.314396847846</v>
+        <v>2641.862507654036</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.40847069723949</v>
+        <v>51.67048005508148</v>
       </c>
       <c r="G31">
-        <v>275.1837483592222</v>
+        <v>272.584970497863</v>
       </c>
       <c r="H31">
-        <v>1794.196200218182</v>
+        <v>1748.996648394322</v>
       </c>
       <c r="I31">
-        <v>-264.3480126189345</v>
+        <v>-268.5664136370356</v>
       </c>
       <c r="J31">
-        <v>598.5698151304352</v>
+        <v>570.5401214589266</v>
       </c>
       <c r="K31">
-        <v>2740.776354114387</v>
+        <v>2624.92138429033</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.21308636963018</v>
+        <v>49.52141314580794</v>
       </c>
       <c r="G32">
-        <v>266.6241514027098</v>
+        <v>288.6001678780419</v>
       </c>
       <c r="H32">
-        <v>1797.049070668175</v>
+        <v>1707.525854968622</v>
       </c>
       <c r="I32">
-        <v>-198.8634076032554</v>
+        <v>-210.8571106907904</v>
       </c>
       <c r="J32">
-        <v>545.9811327183686</v>
+        <v>564.0298035648557</v>
       </c>
       <c r="K32">
-        <v>2485.582456984279</v>
+        <v>2594.311119963495</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.27559634960727</v>
+        <v>51.59570826832778</v>
       </c>
       <c r="G33">
-        <v>294.3081682742455</v>
+        <v>286.1394081539717</v>
       </c>
       <c r="H33">
-        <v>1874.152334718257</v>
+        <v>1767.801925803553</v>
       </c>
       <c r="I33">
-        <v>-147.5165656408872</v>
+        <v>-145.6231420897614</v>
       </c>
       <c r="J33">
-        <v>467.6999124093928</v>
+        <v>491.4967785460877</v>
       </c>
       <c r="K33">
-        <v>2450.551708156949</v>
+        <v>2426.570074225368</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.85046202235134</v>
+        <v>50.90957495136638</v>
       </c>
       <c r="G34">
-        <v>319.0700968377643</v>
+        <v>311.509564313632</v>
       </c>
       <c r="H34">
-        <v>1809.551817845362</v>
+        <v>1752.316032848491</v>
       </c>
       <c r="I34">
-        <v>-85.22758713659735</v>
+        <v>-79.63245833962132</v>
       </c>
       <c r="J34">
-        <v>440.8944922542456</v>
+        <v>456.2998553976074</v>
       </c>
       <c r="K34">
-        <v>2307.324834138382</v>
+        <v>2252.590232567065</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.30815252294403</v>
+        <v>47.80653695302276</v>
       </c>
       <c r="G35">
-        <v>325.710754312926</v>
+        <v>314.0545987772467</v>
       </c>
       <c r="H35">
-        <v>1785.489373258421</v>
+        <v>1841.377699588075</v>
       </c>
       <c r="I35">
-        <v>-18.34427488734389</v>
+        <v>-18.22111494133612</v>
       </c>
       <c r="J35">
-        <v>399.2887077849412</v>
+        <v>407.3337209456289</v>
       </c>
       <c r="K35">
-        <v>2125.689239023777</v>
+        <v>2065.840266605168</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.65123765882272</v>
+        <v>47.13101691417847</v>
       </c>
       <c r="G36">
-        <v>357.2990470165804</v>
+        <v>355.1482090744561</v>
       </c>
       <c r="H36">
-        <v>1850.299175355332</v>
+        <v>1762.539195201681</v>
       </c>
       <c r="I36">
-        <v>48.31709849826577</v>
+        <v>47.20401190728464</v>
       </c>
       <c r="J36">
-        <v>339.2367290410285</v>
+        <v>343.1779452496561</v>
       </c>
       <c r="K36">
-        <v>1889.46801346974</v>
+        <v>1883.732647697901</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.29891425319036</v>
+        <v>47.56899635471463</v>
       </c>
       <c r="G37">
-        <v>370.4918892840979</v>
+        <v>347.6806993470113</v>
       </c>
       <c r="H37">
-        <v>1811.400369998314</v>
+        <v>1761.596133447071</v>
       </c>
       <c r="I37">
-        <v>114.0846799895207</v>
+        <v>120.3223644830273</v>
       </c>
       <c r="J37">
-        <v>288.5585198539804</v>
+        <v>287.5618467938031</v>
       </c>
       <c r="K37">
-        <v>1657.528235754734</v>
+        <v>1616.508399379295</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.55608289867604</v>
+        <v>47.47897324746113</v>
       </c>
       <c r="G38">
-        <v>387.6607603517025</v>
+        <v>379.2696810313299</v>
       </c>
       <c r="H38">
-        <v>1846.014154053269</v>
+        <v>1782.910206667203</v>
       </c>
       <c r="I38">
-        <v>182.7286127081562</v>
+        <v>181.3446243847866</v>
       </c>
       <c r="J38">
-        <v>239.743646314168</v>
+        <v>245.6190164317081</v>
       </c>
       <c r="K38">
-        <v>1457.140408626855</v>
+        <v>1360.992727274562</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.91497289182121</v>
+        <v>43.40537640040088</v>
       </c>
       <c r="G39">
-        <v>412.7168785653367</v>
+        <v>395.1434072456087</v>
       </c>
       <c r="H39">
-        <v>1886.82521094644</v>
+        <v>1886.396002403103</v>
       </c>
       <c r="I39">
-        <v>264.0113719017548</v>
+        <v>260.5032553591753</v>
       </c>
       <c r="J39">
-        <v>201.3317340903103</v>
+        <v>204.0358753887396</v>
       </c>
       <c r="K39">
-        <v>1130.636054716898</v>
+        <v>1138.259069647694</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>46.07959444203729</v>
+        <v>43.82997479564402</v>
       </c>
       <c r="G40">
-        <v>395.3253369981339</v>
+        <v>424.4368805028641</v>
       </c>
       <c r="H40">
-        <v>1936.086205524098</v>
+        <v>1802.470010293617</v>
       </c>
       <c r="I40">
-        <v>343.2139232463627</v>
+        <v>337.9450219776497</v>
       </c>
       <c r="J40">
-        <v>154.1459023330341</v>
+        <v>157.4997974638183</v>
       </c>
       <c r="K40">
-        <v>898.2402523250897</v>
+        <v>890.1676777882135</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.76968982916415</v>
+        <v>42.22530201062238</v>
       </c>
       <c r="G41">
-        <v>410.0540400499942</v>
+        <v>429.840970954551</v>
       </c>
       <c r="H41">
-        <v>1836.847567499349</v>
+        <v>1849.962305470356</v>
       </c>
       <c r="I41">
-        <v>386.3245054031081</v>
+        <v>385.3655351713323</v>
       </c>
       <c r="J41">
-        <v>103.3693768921765</v>
+        <v>103.7089334208762</v>
       </c>
       <c r="K41">
-        <v>641.1792720729507</v>
+        <v>634.40376677144</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.61315993626958</v>
+        <v>44.51782600073547</v>
       </c>
       <c r="G42">
-        <v>459.3001131509</v>
+        <v>448.7558422048047</v>
       </c>
       <c r="H42">
-        <v>1970.689398904365</v>
+        <v>1985.091014467737</v>
       </c>
       <c r="I42">
-        <v>473.4510602532314</v>
+        <v>468.3422028334489</v>
       </c>
       <c r="J42">
-        <v>55.70155598568698</v>
+        <v>56.36176533263394</v>
       </c>
       <c r="K42">
-        <v>320.7192454163023</v>
+        <v>335.9412029029519</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.99055306151319</v>
+        <v>43.55462634873856</v>
       </c>
       <c r="G43">
-        <v>447.123171299806</v>
+        <v>460.185063016826</v>
       </c>
       <c r="H43">
-        <v>1829.233432101539</v>
+        <v>1827.259017471949</v>
       </c>
       <c r="I43">
-        <v>563.0024542261322</v>
+        <v>531.7037555003214</v>
       </c>
       <c r="J43">
-        <v>5.090750968097535</v>
+        <v>5.160996882615228</v>
       </c>
       <c r="K43">
-        <v>34.3752997270923</v>
+        <v>34.8326461029189</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.62388196516445</v>
+        <v>42.12327175741355</v>
       </c>
       <c r="G44">
-        <v>478.0440064493341</v>
+        <v>467.0328422889299</v>
       </c>
       <c r="H44">
-        <v>1993.377491556974</v>
+        <v>1974.417877529926</v>
       </c>
       <c r="I44">
-        <v>631.7278014831578</v>
+        <v>619.6625214960377</v>
       </c>
       <c r="J44">
-        <v>-41.75073538174509</v>
+        <v>-45.24834724275262</v>
       </c>
       <c r="K44">
-        <v>-274.9436170199142</v>
+        <v>-290.4146135671585</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.21910109672383</v>
+        <v>41.89071529759491</v>
       </c>
       <c r="G45">
-        <v>493.2773043790691</v>
+        <v>500.0677482193919</v>
       </c>
       <c r="H45">
-        <v>2005.870083609444</v>
+        <v>1880.944691896074</v>
       </c>
       <c r="I45">
-        <v>731.6695200684721</v>
+        <v>738.4575513714215</v>
       </c>
       <c r="J45">
-        <v>-90.36903324329792</v>
+        <v>-91.39609512807549</v>
       </c>
       <c r="K45">
-        <v>-618.3852170537039</v>
+        <v>-605.5787679713712</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.13459006234083</v>
+        <v>38.9407836977572</v>
       </c>
       <c r="G46">
-        <v>534.5947504870993</v>
+        <v>532.2544480037088</v>
       </c>
       <c r="H46">
-        <v>1876.716988581418</v>
+        <v>1860.741391930834</v>
       </c>
       <c r="I46">
-        <v>767.6840591707786</v>
+        <v>767.5768822436642</v>
       </c>
       <c r="J46">
-        <v>-145.2064235709137</v>
+        <v>-135.7338680978213</v>
       </c>
       <c r="K46">
-        <v>-966.3672676176996</v>
+        <v>-945.0460991825157</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.01413630468213</v>
+        <v>39.14554894321699</v>
       </c>
       <c r="G47">
-        <v>530.2935208279484</v>
+        <v>519.8147618704398</v>
       </c>
       <c r="H47">
-        <v>2013.632137709795</v>
+        <v>1988.967532983975</v>
       </c>
       <c r="I47">
-        <v>921.394103566265</v>
+        <v>922.8192127261273</v>
       </c>
       <c r="J47">
-        <v>-189.6682240448966</v>
+        <v>-196.0302803473982</v>
       </c>
       <c r="K47">
-        <v>-1370.000543926795</v>
+        <v>-1312.401412639588</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.68032485284826</v>
+        <v>39.51599150767652</v>
       </c>
       <c r="G48">
-        <v>570.2029089052528</v>
+        <v>565.3386586652601</v>
       </c>
       <c r="H48">
-        <v>2030.062343721175</v>
+        <v>1901.413788771683</v>
       </c>
       <c r="I48">
-        <v>1003.871806928066</v>
+        <v>973.7103250086139</v>
       </c>
       <c r="J48">
-        <v>-228.9284408296096</v>
+        <v>-233.5443931306921</v>
       </c>
       <c r="K48">
-        <v>-1783.988889872036</v>
+        <v>-1668.658227085335</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.12100784857449</v>
+        <v>39.97312847787588</v>
       </c>
       <c r="G49">
-        <v>574.5805807470895</v>
+        <v>558.5005279493081</v>
       </c>
       <c r="H49">
-        <v>2013.94748410276</v>
+        <v>1879.588433449344</v>
       </c>
       <c r="I49">
-        <v>1054.348725957319</v>
+        <v>1107.571240354124</v>
       </c>
       <c r="J49">
-        <v>-281.1454584195924</v>
+        <v>-289.5174847793269</v>
       </c>
       <c r="K49">
-        <v>-2094.45954645866</v>
+        <v>-2159.92370176666</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.8294006434424</v>
+        <v>37.38558215285662</v>
       </c>
       <c r="G50">
-        <v>566.1434348402835</v>
+        <v>552.9688289876914</v>
       </c>
       <c r="H50">
-        <v>1932.127913465389</v>
+        <v>1906.839621220081</v>
       </c>
       <c r="I50">
-        <v>1145.234294872522</v>
+        <v>1213.073514069477</v>
       </c>
       <c r="J50">
-        <v>-327.6465816526654</v>
+        <v>-340.5011025957323</v>
       </c>
       <c r="K50">
-        <v>-2445.701192753824</v>
+        <v>-2609.633787966896</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.7139712914999</v>
+        <v>37.75796155726628</v>
       </c>
       <c r="G51">
-        <v>598.8446125640502</v>
+        <v>607.401484602697</v>
       </c>
       <c r="H51">
-        <v>1957.366119071968</v>
+        <v>1900.850339065789</v>
       </c>
       <c r="I51">
-        <v>1312.030195730459</v>
+        <v>1303.340719558674</v>
       </c>
       <c r="J51">
-        <v>-371.3883024585823</v>
+        <v>-385.6725551424447</v>
       </c>
       <c r="K51">
-        <v>-3059.786900072059</v>
+        <v>-2981.108312108274</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.37952660345529</v>
+        <v>36.7071726654404</v>
       </c>
       <c r="G52">
-        <v>634.6283951615453</v>
+        <v>610.72751290761</v>
       </c>
       <c r="H52">
-        <v>2028.88222230052</v>
+        <v>2043.555207187884</v>
       </c>
       <c r="I52">
-        <v>1363.039778304157</v>
+        <v>1417.955950763723</v>
       </c>
       <c r="J52">
-        <v>-418.7403304304348</v>
+        <v>-425.6173721989914</v>
       </c>
       <c r="K52">
-        <v>-3460.238109194768</v>
+        <v>-3215.228896977357</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.89580838937288</v>
+        <v>35.35572302088229</v>
       </c>
       <c r="G53">
-        <v>630.2767299435333</v>
+        <v>654.8889632288294</v>
       </c>
       <c r="H53">
-        <v>1950.715926364695</v>
+        <v>2002.297038144863</v>
       </c>
       <c r="I53">
-        <v>1521.90684580402</v>
+        <v>1484.269152865631</v>
       </c>
       <c r="J53">
-        <v>-494.9047207763001</v>
+        <v>-491.1567320888835</v>
       </c>
       <c r="K53">
-        <v>-3950.512874488678</v>
+        <v>-3770.392730677457</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.87681273812213</v>
+        <v>38.3912829760325</v>
       </c>
       <c r="G54">
-        <v>663.3606239120948</v>
+        <v>636.00439627888</v>
       </c>
       <c r="H54">
-        <v>1949.415753592636</v>
+        <v>1889.56605233685</v>
       </c>
       <c r="I54">
-        <v>1535.499576663881</v>
+        <v>1607.633213558558</v>
       </c>
       <c r="J54">
-        <v>-521.0672098357306</v>
+        <v>-543.0329494136421</v>
       </c>
       <c r="K54">
-        <v>-4179.265140550132</v>
+        <v>-4085.096433938558</v>
       </c>
     </row>
   </sheetData>
